--- a/regions_data/Ciepłownictwo/pie_chart_data/2_Zużycie ciepła wg sektora.xlsx
+++ b/regions_data/Ciepłownictwo/pie_chart_data/2_Zużycie ciepła wg sektora.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Nazwa wycinka</t>
+  </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
   </si>
@@ -165,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,10 +182,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,76 +202,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="B1:R3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="3" t="n">
         <v>6902</v>
       </c>
@@ -323,10 +322,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="3" t="n">
         <v>15697</v>
       </c>
